--- a/Experiments/Closed_loop/Closed loop result shared by Furkan.xlsx
+++ b/Experiments/Closed_loop/Closed loop result shared by Furkan.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11108"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11213"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nayab/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/Data/Bristol_Robotics_MSc/Robotics_systems/Github/Experiments/Closed_loop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56CBF0AD-4F55-014B-8921-3F05EBF6A0CB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7403938E-9C13-4A47-B270-CF7F86E89AD9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="1" xr2:uid="{E6BF64B5-3D42-4342-8C5E-5139F17F67C2}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16120" activeTab="1" xr2:uid="{E6BF64B5-3D42-4342-8C5E-5139F17F67C2}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
@@ -5695,7 +5695,7 @@
   <dimension ref="A1:J200"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -5757,7 +5757,7 @@
         <v>0</v>
       </c>
       <c r="G2">
-        <f>ABS(D2-B2)</f>
+        <f t="shared" ref="G2:G48" si="0">ABS(D2-B2)</f>
         <v>0</v>
       </c>
       <c r="H2" s="5">
@@ -5784,11 +5784,11 @@
         <v>0</v>
       </c>
       <c r="F3">
-        <f t="shared" ref="F3:F66" si="0">(D3-B3)</f>
+        <f t="shared" ref="F3:F48" si="1">(D3-B3)</f>
         <v>0.02</v>
       </c>
       <c r="G3">
-        <f>ABS(D3-B3)</f>
+        <f t="shared" si="0"/>
         <v>0.02</v>
       </c>
       <c r="I3" s="4">
@@ -5810,15 +5810,15 @@
         <v>0</v>
       </c>
       <c r="F4">
+        <f t="shared" si="1"/>
+        <v>0.02</v>
+      </c>
+      <c r="G4">
         <f t="shared" si="0"/>
         <v>0.02</v>
       </c>
-      <c r="G4">
-        <f>ABS(D4-B4)</f>
-        <v>0.02</v>
-      </c>
       <c r="I4" s="4">
-        <f t="shared" ref="I4:I67" si="1">F4*F4</f>
+        <f t="shared" ref="I4:I67" si="2">F4*F4</f>
         <v>4.0000000000000002E-4</v>
       </c>
     </row>
@@ -5836,15 +5836,15 @@
         <v>0</v>
       </c>
       <c r="F5">
+        <f t="shared" si="1"/>
+        <v>-0.01</v>
+      </c>
+      <c r="G5">
         <f t="shared" si="0"/>
-        <v>-0.01</v>
-      </c>
-      <c r="G5">
-        <f>ABS(D5-B5)</f>
         <v>0.01</v>
       </c>
       <c r="I5" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1E-4</v>
       </c>
     </row>
@@ -5862,15 +5862,15 @@
         <v>0</v>
       </c>
       <c r="F6">
+        <f t="shared" si="1"/>
+        <v>-0.03</v>
+      </c>
+      <c r="G6">
         <f t="shared" si="0"/>
-        <v>-0.03</v>
-      </c>
-      <c r="G6">
-        <f>ABS(D6-B6)</f>
         <v>0.03</v>
       </c>
       <c r="I6" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>8.9999999999999998E-4</v>
       </c>
     </row>
@@ -5888,15 +5888,15 @@
         <v>0</v>
       </c>
       <c r="F7">
+        <f t="shared" si="1"/>
+        <v>-0.05</v>
+      </c>
+      <c r="G7">
         <f t="shared" si="0"/>
-        <v>-0.05</v>
-      </c>
-      <c r="G7">
-        <f>ABS(D7-B7)</f>
         <v>0.05</v>
       </c>
       <c r="I7" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2.5000000000000005E-3</v>
       </c>
     </row>
@@ -5914,15 +5914,15 @@
         <v>0</v>
       </c>
       <c r="F8">
+        <f t="shared" si="1"/>
+        <v>-0.05</v>
+      </c>
+      <c r="G8">
         <f t="shared" si="0"/>
-        <v>-0.05</v>
-      </c>
-      <c r="G8">
-        <f>ABS(D8-B8)</f>
         <v>0.05</v>
       </c>
       <c r="I8" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2.5000000000000005E-3</v>
       </c>
     </row>
@@ -5940,15 +5940,15 @@
         <v>0</v>
       </c>
       <c r="F9">
+        <f t="shared" si="1"/>
+        <v>-0.06</v>
+      </c>
+      <c r="G9">
         <f t="shared" si="0"/>
-        <v>-0.06</v>
-      </c>
-      <c r="G9">
-        <f>ABS(D9-B9)</f>
         <v>0.06</v>
       </c>
       <c r="I9" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3.5999999999999999E-3</v>
       </c>
     </row>
@@ -5966,15 +5966,15 @@
         <v>0</v>
       </c>
       <c r="F10">
+        <f t="shared" si="1"/>
+        <v>-0.06</v>
+      </c>
+      <c r="G10">
         <f t="shared" si="0"/>
-        <v>-0.06</v>
-      </c>
-      <c r="G10">
-        <f>ABS(D10-B10)</f>
         <v>0.06</v>
       </c>
       <c r="I10" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3.5999999999999999E-3</v>
       </c>
     </row>
@@ -5992,15 +5992,15 @@
         <v>0</v>
       </c>
       <c r="F11">
+        <f t="shared" si="1"/>
+        <v>-0.05</v>
+      </c>
+      <c r="G11">
         <f t="shared" si="0"/>
-        <v>-0.05</v>
-      </c>
-      <c r="G11">
-        <f>ABS(D11-B11)</f>
         <v>0.05</v>
       </c>
       <c r="I11" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2.5000000000000005E-3</v>
       </c>
     </row>
@@ -6018,15 +6018,15 @@
         <v>0</v>
       </c>
       <c r="F12">
+        <f t="shared" si="1"/>
+        <v>-0.04</v>
+      </c>
+      <c r="G12">
         <f t="shared" si="0"/>
-        <v>-0.04</v>
-      </c>
-      <c r="G12">
-        <f>ABS(D12-B12)</f>
         <v>0.04</v>
       </c>
       <c r="I12" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.6000000000000001E-3</v>
       </c>
     </row>
@@ -6044,15 +6044,15 @@
         <v>0</v>
       </c>
       <c r="F13">
+        <f t="shared" si="1"/>
+        <v>-0.03</v>
+      </c>
+      <c r="G13">
         <f t="shared" si="0"/>
-        <v>-0.03</v>
-      </c>
-      <c r="G13">
-        <f>ABS(D13-B13)</f>
         <v>0.03</v>
       </c>
       <c r="I13" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>8.9999999999999998E-4</v>
       </c>
     </row>
@@ -6070,15 +6070,15 @@
         <v>0</v>
       </c>
       <c r="F14">
+        <f t="shared" si="1"/>
+        <v>-0.02</v>
+      </c>
+      <c r="G14">
         <f t="shared" si="0"/>
-        <v>-0.02</v>
-      </c>
-      <c r="G14">
-        <f>ABS(D14-B14)</f>
         <v>0.02</v>
       </c>
       <c r="I14" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>4.0000000000000002E-4</v>
       </c>
     </row>
@@ -6096,15 +6096,15 @@
         <v>0</v>
       </c>
       <c r="F15">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G15">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G15">
-        <f>ABS(D15-B15)</f>
-        <v>0</v>
-      </c>
       <c r="I15" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -6122,15 +6122,15 @@
         <v>0</v>
       </c>
       <c r="F16">
+        <f t="shared" si="1"/>
+        <v>0.01</v>
+      </c>
+      <c r="G16">
         <f t="shared" si="0"/>
         <v>0.01</v>
       </c>
-      <c r="G16">
-        <f>ABS(D16-B16)</f>
-        <v>0.01</v>
-      </c>
       <c r="I16" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1E-4</v>
       </c>
     </row>
@@ -6148,15 +6148,15 @@
         <v>0</v>
       </c>
       <c r="F17">
+        <f t="shared" si="1"/>
+        <v>0.01</v>
+      </c>
+      <c r="G17">
         <f t="shared" si="0"/>
         <v>0.01</v>
       </c>
-      <c r="G17">
-        <f>ABS(D17-B17)</f>
-        <v>0.01</v>
-      </c>
       <c r="I17" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1E-4</v>
       </c>
     </row>
@@ -6174,15 +6174,15 @@
         <v>0</v>
       </c>
       <c r="F18">
+        <f t="shared" si="1"/>
+        <v>0.01</v>
+      </c>
+      <c r="G18">
         <f t="shared" si="0"/>
         <v>0.01</v>
       </c>
-      <c r="G18">
-        <f>ABS(D18-B18)</f>
-        <v>0.01</v>
-      </c>
       <c r="I18" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1E-4</v>
       </c>
     </row>
@@ -6200,15 +6200,15 @@
         <v>0</v>
       </c>
       <c r="F19">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G19">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G19">
-        <f>ABS(D19-B19)</f>
-        <v>0</v>
-      </c>
       <c r="I19" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -6226,15 +6226,15 @@
         <v>0</v>
       </c>
       <c r="F20">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G20">
-        <f>ABS(D20-B20)</f>
-        <v>0</v>
-      </c>
       <c r="I20" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -6252,15 +6252,15 @@
         <v>0</v>
       </c>
       <c r="F21">
+        <f t="shared" si="1"/>
+        <v>-0.01</v>
+      </c>
+      <c r="G21">
         <f t="shared" si="0"/>
-        <v>-0.01</v>
-      </c>
-      <c r="G21">
-        <f>ABS(D21-B21)</f>
         <v>0.01</v>
       </c>
       <c r="I21" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1E-4</v>
       </c>
     </row>
@@ -6278,15 +6278,15 @@
         <v>0</v>
       </c>
       <c r="F22">
+        <f t="shared" si="1"/>
+        <v>-0.02</v>
+      </c>
+      <c r="G22">
         <f t="shared" si="0"/>
-        <v>-0.02</v>
-      </c>
-      <c r="G22">
-        <f>ABS(D22-B22)</f>
         <v>0.02</v>
       </c>
       <c r="I22" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>4.0000000000000002E-4</v>
       </c>
     </row>
@@ -6304,15 +6304,15 @@
         <v>0</v>
       </c>
       <c r="F23">
+        <f t="shared" si="1"/>
+        <v>-0.03</v>
+      </c>
+      <c r="G23">
         <f t="shared" si="0"/>
-        <v>-0.03</v>
-      </c>
-      <c r="G23">
-        <f>ABS(D23-B23)</f>
         <v>0.03</v>
       </c>
       <c r="I23" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>8.9999999999999998E-4</v>
       </c>
     </row>
@@ -6330,15 +6330,15 @@
         <v>0</v>
       </c>
       <c r="F24">
+        <f t="shared" si="1"/>
+        <v>-0.03</v>
+      </c>
+      <c r="G24">
         <f t="shared" si="0"/>
-        <v>-0.03</v>
-      </c>
-      <c r="G24">
-        <f>ABS(D24-B24)</f>
         <v>0.03</v>
       </c>
       <c r="I24" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>8.9999999999999998E-4</v>
       </c>
     </row>
@@ -6356,15 +6356,15 @@
         <v>0</v>
       </c>
       <c r="F25">
+        <f t="shared" si="1"/>
+        <v>-0.02</v>
+      </c>
+      <c r="G25">
         <f t="shared" si="0"/>
-        <v>-0.02</v>
-      </c>
-      <c r="G25">
-        <f>ABS(D25-B25)</f>
         <v>0.02</v>
       </c>
       <c r="I25" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>4.0000000000000002E-4</v>
       </c>
     </row>
@@ -6382,15 +6382,15 @@
         <v>0</v>
       </c>
       <c r="F26">
+        <f t="shared" si="1"/>
+        <v>-0.01</v>
+      </c>
+      <c r="G26">
         <f t="shared" si="0"/>
-        <v>-0.01</v>
-      </c>
-      <c r="G26">
-        <f>ABS(D26-B26)</f>
         <v>0.01</v>
       </c>
       <c r="I26" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1E-4</v>
       </c>
     </row>
@@ -6408,15 +6408,15 @@
         <v>0</v>
       </c>
       <c r="F27">
+        <f t="shared" si="1"/>
+        <v>-0.01</v>
+      </c>
+      <c r="G27">
         <f t="shared" si="0"/>
-        <v>-0.01</v>
-      </c>
-      <c r="G27">
-        <f>ABS(D27-B27)</f>
         <v>0.01</v>
       </c>
       <c r="I27" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1E-4</v>
       </c>
     </row>
@@ -6434,15 +6434,15 @@
         <v>0</v>
       </c>
       <c r="F28">
+        <f t="shared" si="1"/>
+        <v>-0.02</v>
+      </c>
+      <c r="G28">
         <f t="shared" si="0"/>
-        <v>-0.02</v>
-      </c>
-      <c r="G28">
-        <f>ABS(D28-B28)</f>
         <v>0.02</v>
       </c>
       <c r="I28" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>4.0000000000000002E-4</v>
       </c>
     </row>
@@ -6460,15 +6460,15 @@
         <v>0</v>
       </c>
       <c r="F29">
+        <f t="shared" si="1"/>
+        <v>-0.03</v>
+      </c>
+      <c r="G29">
         <f t="shared" si="0"/>
-        <v>-0.03</v>
-      </c>
-      <c r="G29">
-        <f>ABS(D29-B29)</f>
         <v>0.03</v>
       </c>
       <c r="I29" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>8.9999999999999998E-4</v>
       </c>
     </row>
@@ -6486,15 +6486,15 @@
         <v>0</v>
       </c>
       <c r="F30">
+        <f t="shared" si="1"/>
+        <v>-0.03</v>
+      </c>
+      <c r="G30">
         <f t="shared" si="0"/>
-        <v>-0.03</v>
-      </c>
-      <c r="G30">
-        <f>ABS(D30-B30)</f>
         <v>0.03</v>
       </c>
       <c r="I30" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>8.9999999999999998E-4</v>
       </c>
     </row>
@@ -6512,15 +6512,15 @@
         <v>0</v>
       </c>
       <c r="F31">
+        <f t="shared" si="1"/>
+        <v>-0.03</v>
+      </c>
+      <c r="G31">
         <f t="shared" si="0"/>
-        <v>-0.03</v>
-      </c>
-      <c r="G31">
-        <f>ABS(D31-B31)</f>
         <v>0.03</v>
       </c>
       <c r="I31" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>8.9999999999999998E-4</v>
       </c>
     </row>
@@ -6538,15 +6538,15 @@
         <v>0</v>
       </c>
       <c r="F32">
+        <f t="shared" si="1"/>
+        <v>-0.03</v>
+      </c>
+      <c r="G32">
         <f t="shared" si="0"/>
-        <v>-0.03</v>
-      </c>
-      <c r="G32">
-        <f>ABS(D32-B32)</f>
         <v>0.03</v>
       </c>
       <c r="I32" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>8.9999999999999998E-4</v>
       </c>
     </row>
@@ -6564,15 +6564,15 @@
         <v>0</v>
       </c>
       <c r="F33">
+        <f t="shared" si="1"/>
+        <v>-0.02</v>
+      </c>
+      <c r="G33">
         <f t="shared" si="0"/>
-        <v>-0.02</v>
-      </c>
-      <c r="G33">
-        <f>ABS(D33-B33)</f>
         <v>0.02</v>
       </c>
       <c r="I33" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>4.0000000000000002E-4</v>
       </c>
     </row>
@@ -6590,15 +6590,15 @@
         <v>0</v>
       </c>
       <c r="F34">
+        <f t="shared" si="1"/>
+        <v>-0.02</v>
+      </c>
+      <c r="G34">
         <f t="shared" si="0"/>
-        <v>-0.02</v>
-      </c>
-      <c r="G34">
-        <f>ABS(D34-B34)</f>
         <v>0.02</v>
       </c>
       <c r="I34" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>4.0000000000000002E-4</v>
       </c>
     </row>
@@ -6616,15 +6616,15 @@
         <v>0</v>
       </c>
       <c r="F35">
+        <f t="shared" si="1"/>
+        <v>-0.03</v>
+      </c>
+      <c r="G35">
         <f t="shared" si="0"/>
-        <v>-0.03</v>
-      </c>
-      <c r="G35">
-        <f>ABS(D35-B35)</f>
         <v>0.03</v>
       </c>
       <c r="I35" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>8.9999999999999998E-4</v>
       </c>
     </row>
@@ -6642,15 +6642,15 @@
         <v>0</v>
       </c>
       <c r="F36">
+        <f t="shared" si="1"/>
+        <v>-0.03</v>
+      </c>
+      <c r="G36">
         <f t="shared" si="0"/>
-        <v>-0.03</v>
-      </c>
-      <c r="G36">
-        <f>ABS(D36-B36)</f>
         <v>0.03</v>
       </c>
       <c r="I36" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>8.9999999999999998E-4</v>
       </c>
     </row>
@@ -6668,15 +6668,15 @@
         <v>0</v>
       </c>
       <c r="F37">
+        <f t="shared" si="1"/>
+        <v>-0.04</v>
+      </c>
+      <c r="G37">
         <f t="shared" si="0"/>
-        <v>-0.04</v>
-      </c>
-      <c r="G37">
-        <f>ABS(D37-B37)</f>
         <v>0.04</v>
       </c>
       <c r="I37" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.6000000000000001E-3</v>
       </c>
     </row>
@@ -6694,15 +6694,15 @@
         <v>0</v>
       </c>
       <c r="F38">
+        <f t="shared" si="1"/>
+        <v>-0.04</v>
+      </c>
+      <c r="G38">
         <f t="shared" si="0"/>
-        <v>-0.04</v>
-      </c>
-      <c r="G38">
-        <f>ABS(D38-B38)</f>
         <v>0.04</v>
       </c>
       <c r="I38" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.6000000000000001E-3</v>
       </c>
     </row>
@@ -6720,15 +6720,15 @@
         <v>0</v>
       </c>
       <c r="F39">
+        <f t="shared" si="1"/>
+        <v>-0.05</v>
+      </c>
+      <c r="G39">
         <f t="shared" si="0"/>
-        <v>-0.05</v>
-      </c>
-      <c r="G39">
-        <f>ABS(D39-B39)</f>
         <v>0.05</v>
       </c>
       <c r="I39" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2.5000000000000005E-3</v>
       </c>
     </row>
@@ -6746,15 +6746,15 @@
         <v>0</v>
       </c>
       <c r="F40">
+        <f t="shared" si="1"/>
+        <v>-0.05</v>
+      </c>
+      <c r="G40">
         <f t="shared" si="0"/>
-        <v>-0.05</v>
-      </c>
-      <c r="G40">
-        <f>ABS(D40-B40)</f>
         <v>0.05</v>
       </c>
       <c r="I40" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2.5000000000000005E-3</v>
       </c>
     </row>
@@ -6772,15 +6772,15 @@
         <v>0</v>
       </c>
       <c r="F41">
+        <f t="shared" si="1"/>
+        <v>-0.05</v>
+      </c>
+      <c r="G41">
         <f t="shared" si="0"/>
-        <v>-0.05</v>
-      </c>
-      <c r="G41">
-        <f>ABS(D41-B41)</f>
         <v>0.05</v>
       </c>
       <c r="I41" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2.5000000000000005E-3</v>
       </c>
     </row>
@@ -6798,15 +6798,15 @@
         <v>0</v>
       </c>
       <c r="F42">
+        <f t="shared" si="1"/>
+        <v>-0.04</v>
+      </c>
+      <c r="G42">
         <f t="shared" si="0"/>
-        <v>-0.04</v>
-      </c>
-      <c r="G42">
-        <f>ABS(D42-B42)</f>
         <v>0.04</v>
       </c>
       <c r="I42" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.6000000000000001E-3</v>
       </c>
     </row>
@@ -6824,15 +6824,15 @@
         <v>0</v>
       </c>
       <c r="F43">
+        <f t="shared" si="1"/>
+        <v>-0.05</v>
+      </c>
+      <c r="G43">
         <f t="shared" si="0"/>
-        <v>-0.05</v>
-      </c>
-      <c r="G43">
-        <f>ABS(D43-B43)</f>
         <v>0.05</v>
       </c>
       <c r="I43" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2.5000000000000005E-3</v>
       </c>
     </row>
@@ -6850,15 +6850,15 @@
         <v>0</v>
       </c>
       <c r="F44">
+        <f t="shared" si="1"/>
+        <v>-0.05</v>
+      </c>
+      <c r="G44">
         <f t="shared" si="0"/>
-        <v>-0.05</v>
-      </c>
-      <c r="G44">
-        <f>ABS(D44-B44)</f>
         <v>0.05</v>
       </c>
       <c r="I44" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2.5000000000000005E-3</v>
       </c>
     </row>
@@ -6876,15 +6876,15 @@
         <v>0</v>
       </c>
       <c r="F45">
+        <f t="shared" si="1"/>
+        <v>-0.05</v>
+      </c>
+      <c r="G45">
         <f t="shared" si="0"/>
-        <v>-0.05</v>
-      </c>
-      <c r="G45">
-        <f>ABS(D45-B45)</f>
         <v>0.05</v>
       </c>
       <c r="I45" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2.5000000000000005E-3</v>
       </c>
     </row>
@@ -6902,15 +6902,15 @@
         <v>0</v>
       </c>
       <c r="F46">
+        <f t="shared" si="1"/>
+        <v>-0.09</v>
+      </c>
+      <c r="G46">
         <f t="shared" si="0"/>
-        <v>-0.09</v>
-      </c>
-      <c r="G46">
-        <f>ABS(D46-B46)</f>
         <v>0.09</v>
       </c>
       <c r="I46" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>8.0999999999999996E-3</v>
       </c>
     </row>
@@ -6928,15 +6928,15 @@
         <v>0</v>
       </c>
       <c r="F47">
+        <f t="shared" si="1"/>
+        <v>-0.59</v>
+      </c>
+      <c r="G47">
         <f t="shared" si="0"/>
-        <v>-0.59</v>
-      </c>
-      <c r="G47">
-        <f>ABS(D47-B47)</f>
         <v>0.59</v>
       </c>
       <c r="I47" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.34809999999999997</v>
       </c>
     </row>
@@ -6954,15 +6954,15 @@
         <v>0</v>
       </c>
       <c r="F48">
+        <f t="shared" si="1"/>
+        <v>-2.1800000000000002</v>
+      </c>
+      <c r="G48">
         <f t="shared" si="0"/>
-        <v>-2.1800000000000002</v>
-      </c>
-      <c r="G48">
-        <f>ABS(D48-B48)</f>
         <v>2.1800000000000002</v>
       </c>
       <c r="I48" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>4.7524000000000006</v>
       </c>
     </row>
@@ -6984,11 +6984,11 @@
         <v>-3.3000000000000114</v>
       </c>
       <c r="G49">
-        <f>ABS(E49-A49)</f>
+        <f t="shared" ref="G49:G96" si="3">ABS(E49-A49)</f>
         <v>3.3000000000000114</v>
       </c>
       <c r="I49" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>10.890000000000075</v>
       </c>
     </row>
@@ -7006,15 +7006,15 @@
         <v>500</v>
       </c>
       <c r="F50">
-        <f t="shared" ref="F50:F113" si="2">(E50-A50)</f>
+        <f t="shared" ref="F50:F96" si="4">(E50-A50)</f>
         <v>-13.5</v>
       </c>
       <c r="G50">
-        <f>ABS(E50-A50)</f>
+        <f t="shared" si="3"/>
         <v>13.5</v>
       </c>
       <c r="I50" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>182.25</v>
       </c>
     </row>
@@ -7032,15 +7032,15 @@
         <v>500</v>
       </c>
       <c r="F51">
+        <f t="shared" si="4"/>
+        <v>-22.07000000000005</v>
+      </c>
+      <c r="G51">
+        <f t="shared" si="3"/>
+        <v>22.07000000000005</v>
+      </c>
+      <c r="I51" s="4">
         <f t="shared" si="2"/>
-        <v>-22.07000000000005</v>
-      </c>
-      <c r="G51">
-        <f>ABS(E51-A51)</f>
-        <v>22.07000000000005</v>
-      </c>
-      <c r="I51" s="4">
-        <f t="shared" si="1"/>
         <v>487.08490000000222</v>
       </c>
     </row>
@@ -7058,15 +7058,15 @@
         <v>500</v>
       </c>
       <c r="F52">
+        <f t="shared" si="4"/>
+        <v>-28.460000000000036</v>
+      </c>
+      <c r="G52">
+        <f t="shared" si="3"/>
+        <v>28.460000000000036</v>
+      </c>
+      <c r="I52" s="4">
         <f t="shared" si="2"/>
-        <v>-28.460000000000036</v>
-      </c>
-      <c r="G52">
-        <f>ABS(E52-A52)</f>
-        <v>28.460000000000036</v>
-      </c>
-      <c r="I52" s="4">
-        <f t="shared" si="1"/>
         <v>809.97160000000213</v>
       </c>
     </row>
@@ -7084,15 +7084,15 @@
         <v>500</v>
       </c>
       <c r="F53">
+        <f t="shared" si="4"/>
+        <v>-32.539999999999964</v>
+      </c>
+      <c r="G53">
+        <f t="shared" si="3"/>
+        <v>32.539999999999964</v>
+      </c>
+      <c r="I53" s="4">
         <f t="shared" si="2"/>
-        <v>-32.539999999999964</v>
-      </c>
-      <c r="G53">
-        <f>ABS(E53-A53)</f>
-        <v>32.539999999999964</v>
-      </c>
-      <c r="I53" s="4">
-        <f t="shared" si="1"/>
         <v>1058.8515999999977</v>
       </c>
     </row>
@@ -7110,15 +7110,15 @@
         <v>500</v>
       </c>
       <c r="F54">
+        <f t="shared" si="4"/>
+        <v>-34.169999999999959</v>
+      </c>
+      <c r="G54">
+        <f t="shared" si="3"/>
+        <v>34.169999999999959</v>
+      </c>
+      <c r="I54" s="4">
         <f t="shared" si="2"/>
-        <v>-34.169999999999959</v>
-      </c>
-      <c r="G54">
-        <f>ABS(E54-A54)</f>
-        <v>34.169999999999959</v>
-      </c>
-      <c r="I54" s="4">
-        <f t="shared" si="1"/>
         <v>1167.5888999999972</v>
       </c>
     </row>
@@ -7136,15 +7136,15 @@
         <v>500</v>
       </c>
       <c r="F55">
+        <f t="shared" si="4"/>
+        <v>-33.769999999999982</v>
+      </c>
+      <c r="G55">
+        <f t="shared" si="3"/>
+        <v>33.769999999999982</v>
+      </c>
+      <c r="I55" s="4">
         <f t="shared" si="2"/>
-        <v>-33.769999999999982</v>
-      </c>
-      <c r="G55">
-        <f>ABS(E55-A55)</f>
-        <v>33.769999999999982</v>
-      </c>
-      <c r="I55" s="4">
-        <f t="shared" si="1"/>
         <v>1140.4128999999987</v>
       </c>
     </row>
@@ -7162,15 +7162,15 @@
         <v>500</v>
       </c>
       <c r="F56">
+        <f t="shared" si="4"/>
+        <v>-31.990000000000009</v>
+      </c>
+      <c r="G56">
+        <f t="shared" si="3"/>
+        <v>31.990000000000009</v>
+      </c>
+      <c r="I56" s="4">
         <f t="shared" si="2"/>
-        <v>-31.990000000000009</v>
-      </c>
-      <c r="G56">
-        <f>ABS(E56-A56)</f>
-        <v>31.990000000000009</v>
-      </c>
-      <c r="I56" s="4">
-        <f t="shared" si="1"/>
         <v>1023.3601000000006</v>
       </c>
     </row>
@@ -7188,15 +7188,15 @@
         <v>500</v>
       </c>
       <c r="F57">
+        <f t="shared" si="4"/>
+        <v>-29.120000000000005</v>
+      </c>
+      <c r="G57">
+        <f t="shared" si="3"/>
+        <v>29.120000000000005</v>
+      </c>
+      <c r="I57" s="4">
         <f t="shared" si="2"/>
-        <v>-29.120000000000005</v>
-      </c>
-      <c r="G57">
-        <f>ABS(E57-A57)</f>
-        <v>29.120000000000005</v>
-      </c>
-      <c r="I57" s="4">
-        <f t="shared" si="1"/>
         <v>847.97440000000029</v>
       </c>
     </row>
@@ -7214,15 +7214,15 @@
         <v>500</v>
       </c>
       <c r="F58">
+        <f t="shared" si="4"/>
+        <v>-25.470000000000027</v>
+      </c>
+      <c r="G58">
+        <f t="shared" si="3"/>
+        <v>25.470000000000027</v>
+      </c>
+      <c r="I58" s="4">
         <f t="shared" si="2"/>
-        <v>-25.470000000000027</v>
-      </c>
-      <c r="G58">
-        <f>ABS(E58-A58)</f>
-        <v>25.470000000000027</v>
-      </c>
-      <c r="I58" s="4">
-        <f t="shared" si="1"/>
         <v>648.72090000000139</v>
       </c>
     </row>
@@ -7240,15 +7240,15 @@
         <v>500</v>
       </c>
       <c r="F59">
+        <f t="shared" si="4"/>
+        <v>-21.419999999999959</v>
+      </c>
+      <c r="G59">
+        <f t="shared" si="3"/>
+        <v>21.419999999999959</v>
+      </c>
+      <c r="I59" s="4">
         <f t="shared" si="2"/>
-        <v>-21.419999999999959</v>
-      </c>
-      <c r="G59">
-        <f>ABS(E59-A59)</f>
-        <v>21.419999999999959</v>
-      </c>
-      <c r="I59" s="4">
-        <f t="shared" si="1"/>
         <v>458.81639999999823</v>
       </c>
     </row>
@@ -7266,15 +7266,15 @@
         <v>500</v>
       </c>
       <c r="F60">
+        <f t="shared" si="4"/>
+        <v>-17.389999999999986</v>
+      </c>
+      <c r="G60">
+        <f t="shared" si="3"/>
+        <v>17.389999999999986</v>
+      </c>
+      <c r="I60" s="4">
         <f t="shared" si="2"/>
-        <v>-17.389999999999986</v>
-      </c>
-      <c r="G60">
-        <f>ABS(E60-A60)</f>
-        <v>17.389999999999986</v>
-      </c>
-      <c r="I60" s="4">
-        <f t="shared" si="1"/>
         <v>302.4120999999995</v>
       </c>
     </row>
@@ -7292,15 +7292,15 @@
         <v>500</v>
       </c>
       <c r="F61">
+        <f t="shared" si="4"/>
+        <v>-13.450000000000045</v>
+      </c>
+      <c r="G61">
+        <f t="shared" si="3"/>
+        <v>13.450000000000045</v>
+      </c>
+      <c r="I61" s="4">
         <f t="shared" si="2"/>
-        <v>-13.450000000000045</v>
-      </c>
-      <c r="G61">
-        <f>ABS(E61-A61)</f>
-        <v>13.450000000000045</v>
-      </c>
-      <c r="I61" s="4">
-        <f t="shared" si="1"/>
         <v>180.90250000000123</v>
       </c>
     </row>
@@ -7318,15 +7318,15 @@
         <v>500</v>
       </c>
       <c r="F62">
+        <f t="shared" si="4"/>
+        <v>-9.7300000000000182</v>
+      </c>
+      <c r="G62">
+        <f t="shared" si="3"/>
+        <v>9.7300000000000182</v>
+      </c>
+      <c r="I62" s="4">
         <f t="shared" si="2"/>
-        <v>-9.7300000000000182</v>
-      </c>
-      <c r="G62">
-        <f>ABS(E62-A62)</f>
-        <v>9.7300000000000182</v>
-      </c>
-      <c r="I62" s="4">
-        <f t="shared" si="1"/>
         <v>94.672900000000354</v>
       </c>
     </row>
@@ -7344,15 +7344,15 @@
         <v>500</v>
       </c>
       <c r="F63">
+        <f t="shared" si="4"/>
+        <v>-6.3899999999999864</v>
+      </c>
+      <c r="G63">
+        <f t="shared" si="3"/>
+        <v>6.3899999999999864</v>
+      </c>
+      <c r="I63" s="4">
         <f t="shared" si="2"/>
-        <v>-6.3899999999999864</v>
-      </c>
-      <c r="G63">
-        <f>ABS(E63-A63)</f>
-        <v>6.3899999999999864</v>
-      </c>
-      <c r="I63" s="4">
-        <f t="shared" si="1"/>
         <v>40.832099999999826</v>
       </c>
     </row>
@@ -7370,15 +7370,15 @@
         <v>500</v>
       </c>
       <c r="F64">
+        <f t="shared" si="4"/>
+        <v>-3.4499999999999886</v>
+      </c>
+      <c r="G64">
+        <f t="shared" si="3"/>
+        <v>3.4499999999999886</v>
+      </c>
+      <c r="I64" s="4">
         <f t="shared" si="2"/>
-        <v>-3.4499999999999886</v>
-      </c>
-      <c r="G64">
-        <f>ABS(E64-A64)</f>
-        <v>3.4499999999999886</v>
-      </c>
-      <c r="I64" s="4">
-        <f t="shared" si="1"/>
         <v>11.902499999999922</v>
       </c>
     </row>
@@ -7396,15 +7396,15 @@
         <v>500</v>
       </c>
       <c r="F65">
+        <f t="shared" si="4"/>
+        <v>-0.92000000000001592</v>
+      </c>
+      <c r="G65">
+        <f t="shared" si="3"/>
+        <v>0.92000000000001592</v>
+      </c>
+      <c r="I65" s="4">
         <f t="shared" si="2"/>
-        <v>-0.92000000000001592</v>
-      </c>
-      <c r="G65">
-        <f>ABS(E65-A65)</f>
-        <v>0.92000000000001592</v>
-      </c>
-      <c r="I65" s="4">
-        <f t="shared" si="1"/>
         <v>0.84640000000002924</v>
       </c>
     </row>
@@ -7422,15 +7422,15 @@
         <v>500</v>
       </c>
       <c r="F66">
+        <f t="shared" si="4"/>
+        <v>1.1700000000000159</v>
+      </c>
+      <c r="G66">
+        <f t="shared" si="3"/>
+        <v>1.1700000000000159</v>
+      </c>
+      <c r="I66" s="4">
         <f t="shared" si="2"/>
-        <v>1.1700000000000159</v>
-      </c>
-      <c r="G66">
-        <f>ABS(E66-A66)</f>
-        <v>1.1700000000000159</v>
-      </c>
-      <c r="I66" s="4">
-        <f t="shared" si="1"/>
         <v>1.3689000000000373</v>
       </c>
     </row>
@@ -7448,15 +7448,15 @@
         <v>500</v>
       </c>
       <c r="F67">
+        <f t="shared" si="4"/>
+        <v>2.839999999999975</v>
+      </c>
+      <c r="G67">
+        <f t="shared" si="3"/>
+        <v>2.839999999999975</v>
+      </c>
+      <c r="I67" s="4">
         <f t="shared" si="2"/>
-        <v>2.839999999999975</v>
-      </c>
-      <c r="G67">
-        <f>ABS(E67-A67)</f>
-        <v>2.839999999999975</v>
-      </c>
-      <c r="I67" s="4">
-        <f t="shared" si="1"/>
         <v>8.0655999999998578</v>
       </c>
     </row>
@@ -7474,15 +7474,15 @@
         <v>500</v>
       </c>
       <c r="F68">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>4.1399999999999864</v>
       </c>
       <c r="G68">
-        <f>ABS(E68-A68)</f>
+        <f t="shared" si="3"/>
         <v>4.1399999999999864</v>
       </c>
       <c r="I68" s="4">
-        <f t="shared" ref="I68:I131" si="3">F68*F68</f>
+        <f t="shared" ref="I68:I131" si="5">F68*F68</f>
         <v>17.139599999999888</v>
       </c>
     </row>
@@ -7500,15 +7500,15 @@
         <v>500</v>
       </c>
       <c r="F69">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>5.0500000000000114</v>
       </c>
       <c r="G69">
-        <f>ABS(E69-A69)</f>
+        <f t="shared" si="3"/>
         <v>5.0500000000000114</v>
       </c>
       <c r="I69" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>25.502500000000115</v>
       </c>
     </row>
@@ -7526,15 +7526,15 @@
         <v>500</v>
       </c>
       <c r="F70">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>5.6499999999999773</v>
       </c>
       <c r="G70">
-        <f>ABS(E70-A70)</f>
+        <f t="shared" si="3"/>
         <v>5.6499999999999773</v>
       </c>
       <c r="I70" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>31.922499999999744</v>
       </c>
     </row>
@@ -7552,15 +7552,15 @@
         <v>500</v>
       </c>
       <c r="F71">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>6</v>
       </c>
       <c r="G71">
-        <f>ABS(E71-A71)</f>
+        <f t="shared" si="3"/>
         <v>6</v>
       </c>
       <c r="I71" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>36</v>
       </c>
     </row>
@@ -7578,15 +7578,15 @@
         <v>500</v>
       </c>
       <c r="F72">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>6.1200000000000045</v>
       </c>
       <c r="G72">
-        <f>ABS(E72-A72)</f>
+        <f t="shared" si="3"/>
         <v>6.1200000000000045</v>
       </c>
       <c r="I72" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>37.454400000000057</v>
       </c>
     </row>
@@ -7604,15 +7604,15 @@
         <v>500</v>
       </c>
       <c r="F73">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>6.0699999999999932</v>
       </c>
       <c r="G73">
-        <f>ABS(E73-A73)</f>
+        <f t="shared" si="3"/>
         <v>6.0699999999999932</v>
       </c>
       <c r="I73" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>36.844899999999917</v>
       </c>
     </row>
@@ -7630,15 +7630,15 @@
         <v>500</v>
       </c>
       <c r="F74">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>5.910000000000025</v>
       </c>
       <c r="G74">
-        <f>ABS(E74-A74)</f>
+        <f t="shared" si="3"/>
         <v>5.910000000000025</v>
       </c>
       <c r="I74" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>34.928100000000299</v>
       </c>
     </row>
@@ -7656,15 +7656,15 @@
         <v>500</v>
       </c>
       <c r="F75">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>5.6499999999999773</v>
       </c>
       <c r="G75">
-        <f>ABS(E75-A75)</f>
+        <f t="shared" si="3"/>
         <v>5.6499999999999773</v>
       </c>
       <c r="I75" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>31.922499999999744</v>
       </c>
     </row>
@@ -7682,15 +7682,15 @@
         <v>500</v>
       </c>
       <c r="F76">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>5.3199999999999932</v>
       </c>
       <c r="G76">
-        <f>ABS(E76-A76)</f>
+        <f t="shared" si="3"/>
         <v>5.3199999999999932</v>
       </c>
       <c r="I76" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>28.302399999999928</v>
       </c>
     </row>
@@ -7708,15 +7708,15 @@
         <v>500</v>
       </c>
       <c r="F77">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>4.9700000000000273</v>
       </c>
       <c r="G77">
-        <f>ABS(E77-A77)</f>
+        <f t="shared" si="3"/>
         <v>4.9700000000000273</v>
       </c>
       <c r="I77" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>24.700900000000271</v>
       </c>
     </row>
@@ -7734,15 +7734,15 @@
         <v>500</v>
       </c>
       <c r="F78">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>4.6100000000000136</v>
       </c>
       <c r="G78">
-        <f>ABS(E78-A78)</f>
+        <f t="shared" si="3"/>
         <v>4.6100000000000136</v>
       </c>
       <c r="I78" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>21.252100000000127</v>
       </c>
     </row>
@@ -7760,15 +7760,15 @@
         <v>500</v>
       </c>
       <c r="F79">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>4.25</v>
       </c>
       <c r="G79">
-        <f>ABS(E79-A79)</f>
+        <f t="shared" si="3"/>
         <v>4.25</v>
       </c>
       <c r="I79" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>18.0625</v>
       </c>
     </row>
@@ -7786,15 +7786,15 @@
         <v>500</v>
       </c>
       <c r="F80">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>3.910000000000025</v>
       </c>
       <c r="G80">
-        <f>ABS(E80-A80)</f>
+        <f t="shared" si="3"/>
         <v>3.910000000000025</v>
       </c>
       <c r="I80" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>15.288100000000195</v>
       </c>
     </row>
@@ -7812,15 +7812,15 @@
         <v>500</v>
       </c>
       <c r="F81">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>3.6000000000000227</v>
       </c>
       <c r="G81">
-        <f>ABS(E81-A81)</f>
+        <f t="shared" si="3"/>
         <v>3.6000000000000227</v>
       </c>
       <c r="I81" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>12.960000000000164</v>
       </c>
     </row>
@@ -7838,15 +7838,15 @@
         <v>500</v>
       </c>
       <c r="F82">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>3.3100000000000023</v>
       </c>
       <c r="G82">
-        <f>ABS(E82-A82)</f>
+        <f t="shared" si="3"/>
         <v>3.3100000000000023</v>
       </c>
       <c r="I82" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>10.956100000000015</v>
       </c>
     </row>
@@ -7864,15 +7864,15 @@
         <v>500</v>
       </c>
       <c r="F83">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>3.0600000000000023</v>
       </c>
       <c r="G83">
-        <f>ABS(E83-A83)</f>
+        <f t="shared" si="3"/>
         <v>3.0600000000000023</v>
       </c>
       <c r="I83" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>9.3636000000000141</v>
       </c>
     </row>
@@ -7890,15 +7890,15 @@
         <v>500</v>
       </c>
       <c r="F84">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>2.8500000000000227</v>
       </c>
       <c r="G84">
-        <f>ABS(E84-A84)</f>
+        <f t="shared" si="3"/>
         <v>2.8500000000000227</v>
       </c>
       <c r="I84" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>8.1225000000001302</v>
       </c>
     </row>
@@ -7916,15 +7916,15 @@
         <v>500</v>
       </c>
       <c r="F85">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>2.6800000000000068</v>
       </c>
       <c r="G85">
-        <f>ABS(E85-A85)</f>
+        <f t="shared" si="3"/>
         <v>2.6800000000000068</v>
       </c>
       <c r="I85" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>7.1824000000000368</v>
       </c>
     </row>
@@ -7942,15 +7942,15 @@
         <v>500</v>
       </c>
       <c r="F86">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>2.5299999999999727</v>
       </c>
       <c r="G86">
-        <f>ABS(E86-A86)</f>
+        <f t="shared" si="3"/>
         <v>2.5299999999999727</v>
       </c>
       <c r="I86" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>6.4008999999998624</v>
       </c>
     </row>
@@ -7968,15 +7968,15 @@
         <v>500</v>
       </c>
       <c r="F87">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>2.4200000000000159</v>
       </c>
       <c r="G87">
-        <f>ABS(E87-A87)</f>
+        <f t="shared" si="3"/>
         <v>2.4200000000000159</v>
       </c>
       <c r="I87" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>5.8564000000000771</v>
       </c>
     </row>
@@ -7994,15 +7994,15 @@
         <v>500</v>
       </c>
       <c r="F88">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>2.3500000000000227</v>
       </c>
       <c r="G88">
-        <f>ABS(E88-A88)</f>
+        <f t="shared" si="3"/>
         <v>2.3500000000000227</v>
       </c>
       <c r="I88" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>5.5225000000001065</v>
       </c>
     </row>
@@ -8020,15 +8020,15 @@
         <v>500</v>
       </c>
       <c r="F89">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>2.3100000000000023</v>
       </c>
       <c r="G89">
-        <f>ABS(E89-A89)</f>
+        <f t="shared" si="3"/>
         <v>2.3100000000000023</v>
       </c>
       <c r="I89" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>5.3361000000000107</v>
       </c>
     </row>
@@ -8046,15 +8046,15 @@
         <v>500</v>
       </c>
       <c r="F90">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>2.2799999999999727</v>
       </c>
       <c r="G90">
-        <f>ABS(E90-A90)</f>
+        <f t="shared" si="3"/>
         <v>2.2799999999999727</v>
       </c>
       <c r="I90" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>5.198399999999876</v>
       </c>
     </row>
@@ -8072,15 +8072,15 @@
         <v>500</v>
       </c>
       <c r="F91">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>2.2699999999999818</v>
       </c>
       <c r="G91">
-        <f>ABS(E91-A91)</f>
+        <f t="shared" si="3"/>
         <v>2.2699999999999818</v>
       </c>
       <c r="I91" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>5.1528999999999172</v>
       </c>
     </row>
@@ -8098,15 +8098,15 @@
         <v>500</v>
       </c>
       <c r="F92">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>2.2699999999999818</v>
       </c>
       <c r="G92">
-        <f>ABS(E92-A92)</f>
+        <f t="shared" si="3"/>
         <v>2.2699999999999818</v>
       </c>
       <c r="I92" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>5.1528999999999172</v>
       </c>
     </row>
@@ -8124,15 +8124,15 @@
         <v>500</v>
       </c>
       <c r="F93">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>2.2900000000000205</v>
       </c>
       <c r="G93">
-        <f>ABS(E93-A93)</f>
+        <f t="shared" si="3"/>
         <v>2.2900000000000205</v>
       </c>
       <c r="I93" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>5.2441000000000937</v>
       </c>
     </row>
@@ -8150,15 +8150,15 @@
         <v>500</v>
       </c>
       <c r="F94">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>2.3799999999999955</v>
       </c>
       <c r="G94">
-        <f>ABS(E94-A94)</f>
+        <f t="shared" si="3"/>
         <v>2.3799999999999955</v>
       </c>
       <c r="I94" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>5.6643999999999783</v>
       </c>
     </row>
@@ -8176,15 +8176,15 @@
         <v>500</v>
       </c>
       <c r="F95">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>2.9700000000000273</v>
       </c>
       <c r="G95">
-        <f>ABS(E95-A95)</f>
+        <f t="shared" si="3"/>
         <v>2.9700000000000273</v>
       </c>
       <c r="I95" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>8.8209000000001616</v>
       </c>
     </row>
@@ -8202,15 +8202,15 @@
         <v>500</v>
       </c>
       <c r="F96">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>4.6800000000000068</v>
       </c>
       <c r="G96">
-        <f>ABS(E96-A96)</f>
+        <f t="shared" si="3"/>
         <v>4.6800000000000068</v>
       </c>
       <c r="I96" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>21.902400000000064</v>
       </c>
     </row>
@@ -8232,11 +8232,11 @@
         <v>-5.6000000000000227</v>
       </c>
       <c r="G97">
-        <f>ABS(D97-B97)</f>
+        <f t="shared" ref="G97:G143" si="6">ABS(D97-B97)</f>
         <v>5.6000000000000227</v>
       </c>
       <c r="I97" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>31.360000000000255</v>
       </c>
     </row>
@@ -8254,15 +8254,15 @@
         <v>500</v>
       </c>
       <c r="F98">
-        <f t="shared" ref="F98:F161" si="4">(D98-B98)</f>
+        <f t="shared" ref="F98:F142" si="7">(D98-B98)</f>
         <v>-15.549999999999955</v>
       </c>
       <c r="G98">
-        <f>ABS(D98-B98)</f>
+        <f t="shared" si="6"/>
         <v>15.549999999999955</v>
       </c>
       <c r="I98" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>241.80249999999859</v>
       </c>
     </row>
@@ -8280,15 +8280,15 @@
         <v>500</v>
       </c>
       <c r="F99">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>-24.159999999999968</v>
       </c>
       <c r="G99">
-        <f>ABS(D99-B99)</f>
+        <f t="shared" si="6"/>
         <v>24.159999999999968</v>
       </c>
       <c r="I99" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>583.70559999999841</v>
       </c>
     </row>
@@ -8306,15 +8306,15 @@
         <v>500</v>
       </c>
       <c r="F100">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>-30.529999999999973</v>
       </c>
       <c r="G100">
-        <f>ABS(D100-B100)</f>
+        <f t="shared" si="6"/>
         <v>30.529999999999973</v>
       </c>
       <c r="I100" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>932.08089999999834</v>
       </c>
     </row>
@@ -8332,15 +8332,15 @@
         <v>500</v>
       </c>
       <c r="F101">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>-34.42999999999995</v>
       </c>
       <c r="G101">
-        <f>ABS(D101-B101)</f>
+        <f t="shared" si="6"/>
         <v>34.42999999999995</v>
       </c>
       <c r="I101" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>1185.4248999999966</v>
       </c>
     </row>
@@ -8358,15 +8358,15 @@
         <v>500</v>
       </c>
       <c r="F102">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>-35.840000000000032</v>
       </c>
       <c r="G102">
-        <f>ABS(D102-B102)</f>
+        <f t="shared" si="6"/>
         <v>35.840000000000032</v>
       </c>
       <c r="I102" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>1284.5056000000022</v>
       </c>
     </row>
@@ -8384,15 +8384,15 @@
         <v>500</v>
       </c>
       <c r="F103">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>-35.17999999999995</v>
       </c>
       <c r="G103">
-        <f>ABS(D103-B103)</f>
+        <f t="shared" si="6"/>
         <v>35.17999999999995</v>
       </c>
       <c r="I103" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>1237.6323999999966</v>
       </c>
     </row>
@@ -8410,15 +8410,15 @@
         <v>500</v>
       </c>
       <c r="F104">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>-33.200000000000045</v>
       </c>
       <c r="G104">
-        <f>ABS(D104-B104)</f>
+        <f t="shared" si="6"/>
         <v>33.200000000000045</v>
       </c>
       <c r="I104" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>1102.240000000003</v>
       </c>
     </row>
@@ -8436,15 +8436,15 @@
         <v>500</v>
       </c>
       <c r="F105">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>-30.049999999999955</v>
       </c>
       <c r="G105">
-        <f>ABS(D105-B105)</f>
+        <f t="shared" si="6"/>
         <v>30.049999999999955</v>
       </c>
       <c r="I105" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>903.00249999999721</v>
       </c>
     </row>
@@ -8462,15 +8462,15 @@
         <v>500</v>
       </c>
       <c r="F106">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>-26.269999999999982</v>
       </c>
       <c r="G106">
-        <f>ABS(D106-B106)</f>
+        <f t="shared" si="6"/>
         <v>26.269999999999982</v>
       </c>
       <c r="I106" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>690.11289999999906</v>
       </c>
     </row>
@@ -8488,15 +8488,15 @@
         <v>500</v>
       </c>
       <c r="F107">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>-22.039999999999964</v>
       </c>
       <c r="G107">
-        <f>ABS(D107-B107)</f>
+        <f t="shared" si="6"/>
         <v>22.039999999999964</v>
       </c>
       <c r="I107" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>485.7615999999984</v>
       </c>
     </row>
@@ -8514,15 +8514,15 @@
         <v>500</v>
       </c>
       <c r="F108">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>-17.840000000000032</v>
       </c>
       <c r="G108">
-        <f>ABS(D108-B108)</f>
+        <f t="shared" si="6"/>
         <v>17.840000000000032</v>
       </c>
       <c r="I108" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>318.26560000000114</v>
       </c>
     </row>
@@ -8540,15 +8540,15 @@
         <v>500</v>
       </c>
       <c r="F109">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>-13.840000000000032</v>
       </c>
       <c r="G109">
-        <f>ABS(D109-B109)</f>
+        <f t="shared" si="6"/>
         <v>13.840000000000032</v>
       </c>
       <c r="I109" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>191.54560000000089</v>
       </c>
     </row>
@@ -8570,11 +8570,11 @@
         <v>-10.089999999999975</v>
       </c>
       <c r="G110">
-        <f>ABS(D110-B110)</f>
+        <f t="shared" si="6"/>
         <v>10.089999999999975</v>
       </c>
       <c r="I110" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>101.8080999999995</v>
       </c>
     </row>
@@ -8592,15 +8592,15 @@
         <v>500</v>
       </c>
       <c r="F111">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>-6.7400000000000091</v>
       </c>
       <c r="G111">
-        <f>ABS(D111-B111)</f>
+        <f t="shared" si="6"/>
         <v>6.7400000000000091</v>
       </c>
       <c r="I111" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>45.427600000000126</v>
       </c>
     </row>
@@ -8618,15 +8618,15 @@
         <v>500</v>
       </c>
       <c r="F112">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>-3.8299999999999841</v>
       </c>
       <c r="G112">
-        <f>ABS(D112-B112)</f>
+        <f t="shared" si="6"/>
         <v>3.8299999999999841</v>
       </c>
       <c r="I112" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>14.668899999999878</v>
       </c>
     </row>
@@ -8644,15 +8644,15 @@
         <v>500</v>
       </c>
       <c r="F113">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>-1.3299999999999841</v>
       </c>
       <c r="G113">
-        <f>ABS(D113-B113)</f>
+        <f t="shared" si="6"/>
         <v>1.3299999999999841</v>
       </c>
       <c r="I113" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>1.7688999999999577</v>
       </c>
     </row>
@@ -8670,15 +8670,15 @@
         <v>500</v>
       </c>
       <c r="F114">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>0.69999999999998863</v>
       </c>
       <c r="G114">
-        <f>ABS(D114-B114)</f>
+        <f t="shared" si="6"/>
         <v>0.69999999999998863</v>
       </c>
       <c r="I114" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0.48999999999998406</v>
       </c>
     </row>
@@ -8696,15 +8696,15 @@
         <v>500</v>
       </c>
       <c r="F115">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>2.2900000000000205</v>
       </c>
       <c r="G115">
-        <f>ABS(D115-B115)</f>
+        <f t="shared" si="6"/>
         <v>2.2900000000000205</v>
       </c>
       <c r="I115" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>5.2441000000000937</v>
       </c>
     </row>
@@ -8722,15 +8722,15 @@
         <v>500</v>
       </c>
       <c r="F116">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>3.4900000000000091</v>
       </c>
       <c r="G116">
-        <f>ABS(D116-B116)</f>
+        <f t="shared" si="6"/>
         <v>3.4900000000000091</v>
       </c>
       <c r="I116" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>12.180100000000063</v>
       </c>
     </row>
@@ -8748,15 +8748,15 @@
         <v>500</v>
       </c>
       <c r="F117">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>4.3199999999999932</v>
       </c>
       <c r="G117">
-        <f>ABS(D117-B117)</f>
+        <f t="shared" si="6"/>
         <v>4.3199999999999932</v>
       </c>
       <c r="I117" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>18.662399999999941</v>
       </c>
     </row>
@@ -8774,15 +8774,15 @@
         <v>500</v>
       </c>
       <c r="F118">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>4.8500000000000227</v>
       </c>
       <c r="G118">
-        <f>ABS(D118-B118)</f>
+        <f t="shared" si="6"/>
         <v>4.8500000000000227</v>
       </c>
       <c r="I118" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>23.522500000000221</v>
       </c>
     </row>
@@ -8800,15 +8800,15 @@
         <v>500</v>
       </c>
       <c r="F119">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>5.1000000000000227</v>
       </c>
       <c r="G119">
-        <f>ABS(D119-B119)</f>
+        <f t="shared" si="6"/>
         <v>5.1000000000000227</v>
       </c>
       <c r="I119" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>26.010000000000232</v>
       </c>
     </row>
@@ -8826,15 +8826,15 @@
         <v>500</v>
       </c>
       <c r="F120">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>5.1499999999999773</v>
       </c>
       <c r="G120">
-        <f>ABS(D120-B120)</f>
+        <f t="shared" si="6"/>
         <v>5.1499999999999773</v>
       </c>
       <c r="I120" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>26.522499999999766</v>
       </c>
     </row>
@@ -8852,15 +8852,15 @@
         <v>500</v>
       </c>
       <c r="F121">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>5.0299999999999727</v>
       </c>
       <c r="G121">
-        <f>ABS(D121-B121)</f>
+        <f t="shared" si="6"/>
         <v>5.0299999999999727</v>
       </c>
       <c r="I121" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>25.300899999999725</v>
       </c>
     </row>
@@ -8878,15 +8878,15 @@
         <v>500</v>
       </c>
       <c r="F122">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>4.8000000000000114</v>
       </c>
       <c r="G122">
-        <f>ABS(D122-B122)</f>
+        <f t="shared" si="6"/>
         <v>4.8000000000000114</v>
       </c>
       <c r="I122" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>23.040000000000109</v>
       </c>
     </row>
@@ -8904,15 +8904,15 @@
         <v>500</v>
       </c>
       <c r="F123">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>4.4800000000000182</v>
       </c>
       <c r="G123">
-        <f>ABS(D123-B123)</f>
+        <f t="shared" si="6"/>
         <v>4.4800000000000182</v>
       </c>
       <c r="I123" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>20.070400000000163</v>
       </c>
     </row>
@@ -8930,15 +8930,15 @@
         <v>500</v>
       </c>
       <c r="F124">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>4.0799999999999841</v>
       </c>
       <c r="G124">
-        <f>ABS(D124-B124)</f>
+        <f t="shared" si="6"/>
         <v>4.0799999999999841</v>
       </c>
       <c r="I124" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>16.646399999999868</v>
       </c>
     </row>
@@ -8956,15 +8956,15 @@
         <v>500</v>
       </c>
       <c r="F125">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>3.6700000000000159</v>
       </c>
       <c r="G125">
-        <f>ABS(D125-B125)</f>
+        <f t="shared" si="6"/>
         <v>3.6700000000000159</v>
       </c>
       <c r="I125" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>13.468900000000117</v>
       </c>
     </row>
@@ -8982,15 +8982,15 @@
         <v>500</v>
       </c>
       <c r="F126">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>3.2599999999999909</v>
       </c>
       <c r="G126">
-        <f>ABS(D126-B126)</f>
+        <f t="shared" si="6"/>
         <v>3.2599999999999909</v>
       </c>
       <c r="I126" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>10.627599999999941</v>
       </c>
     </row>
@@ -9008,15 +9008,15 @@
         <v>500</v>
       </c>
       <c r="F127">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>2.8700000000000045</v>
       </c>
       <c r="G127">
-        <f>ABS(D127-B127)</f>
+        <f t="shared" si="6"/>
         <v>2.8700000000000045</v>
       </c>
       <c r="I127" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>8.236900000000027</v>
       </c>
     </row>
@@ -9034,15 +9034,15 @@
         <v>500</v>
       </c>
       <c r="F128">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>2.5099999999999909</v>
       </c>
       <c r="G128">
-        <f>ABS(D128-B128)</f>
+        <f t="shared" si="6"/>
         <v>2.5099999999999909</v>
       </c>
       <c r="I128" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>6.3000999999999543</v>
       </c>
     </row>
@@ -9060,15 +9060,15 @@
         <v>500</v>
       </c>
       <c r="F129">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>2.1800000000000068</v>
       </c>
       <c r="G129">
-        <f>ABS(D129-B129)</f>
+        <f t="shared" si="6"/>
         <v>2.1800000000000068</v>
       </c>
       <c r="I129" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>4.7524000000000299</v>
       </c>
     </row>
@@ -9086,15 +9086,15 @@
         <v>500</v>
       </c>
       <c r="F130">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>1.910000000000025</v>
       </c>
       <c r="G130">
-        <f>ABS(D130-B130)</f>
+        <f t="shared" si="6"/>
         <v>1.910000000000025</v>
       </c>
       <c r="I130" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>3.6481000000000954</v>
       </c>
     </row>
@@ -9112,15 +9112,15 @@
         <v>500</v>
       </c>
       <c r="F131">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>1.6800000000000068</v>
       </c>
       <c r="G131">
-        <f>ABS(D131-B131)</f>
+        <f t="shared" si="6"/>
         <v>1.6800000000000068</v>
       </c>
       <c r="I131" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>2.8224000000000231</v>
       </c>
     </row>
@@ -9138,15 +9138,15 @@
         <v>500</v>
       </c>
       <c r="F132">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>1.4800000000000182</v>
       </c>
       <c r="G132">
-        <f>ABS(D132-B132)</f>
+        <f t="shared" si="6"/>
         <v>1.4800000000000182</v>
       </c>
       <c r="I132" s="4">
-        <f t="shared" ref="I132:I195" si="5">F132*F132</f>
+        <f t="shared" ref="I132:I188" si="8">F132*F132</f>
         <v>2.1904000000000536</v>
       </c>
     </row>
@@ -9164,15 +9164,15 @@
         <v>500</v>
       </c>
       <c r="F133">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>1.3199999999999932</v>
       </c>
       <c r="G133">
-        <f>ABS(D133-B133)</f>
+        <f t="shared" si="6"/>
         <v>1.3199999999999932</v>
       </c>
       <c r="I133" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>1.742399999999982</v>
       </c>
     </row>
@@ -9190,15 +9190,15 @@
         <v>500</v>
       </c>
       <c r="F134">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>1.1899999999999977</v>
       </c>
       <c r="G134">
-        <f>ABS(D134-B134)</f>
+        <f t="shared" si="6"/>
         <v>1.1899999999999977</v>
       </c>
       <c r="I134" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>1.4160999999999946</v>
       </c>
     </row>
@@ -9216,15 +9216,15 @@
         <v>500</v>
       </c>
       <c r="F135">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>1.1000000000000227</v>
       </c>
       <c r="G135">
-        <f>ABS(D135-B135)</f>
+        <f t="shared" si="6"/>
         <v>1.1000000000000227</v>
       </c>
       <c r="I135" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>1.2100000000000499</v>
       </c>
     </row>
@@ -9242,15 +9242,15 @@
         <v>500</v>
       </c>
       <c r="F136">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>1.0299999999999727</v>
       </c>
       <c r="G136">
-        <f>ABS(D136-B136)</f>
+        <f t="shared" si="6"/>
         <v>1.0299999999999727</v>
       </c>
       <c r="I136" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>1.0608999999999438</v>
       </c>
     </row>
@@ -9268,15 +9268,15 @@
         <v>500</v>
       </c>
       <c r="F137">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>0.98000000000001819</v>
       </c>
       <c r="G137">
-        <f>ABS(D137-B137)</f>
+        <f t="shared" si="6"/>
         <v>0.98000000000001819</v>
       </c>
       <c r="I137" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>0.96040000000003567</v>
       </c>
     </row>
@@ -9294,15 +9294,15 @@
         <v>500</v>
       </c>
       <c r="F138">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>0.95999999999997954</v>
       </c>
       <c r="G138">
-        <f>ABS(D138-B138)</f>
+        <f t="shared" si="6"/>
         <v>0.95999999999997954</v>
       </c>
       <c r="I138" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>0.92159999999996067</v>
       </c>
     </row>
@@ -9320,15 +9320,15 @@
         <v>500</v>
       </c>
       <c r="F139">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>0.94999999999998863</v>
       </c>
       <c r="G139">
-        <f>ABS(D139-B139)</f>
+        <f t="shared" si="6"/>
         <v>0.94999999999998863</v>
       </c>
       <c r="I139" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>0.90249999999997843</v>
       </c>
     </row>
@@ -9346,15 +9346,15 @@
         <v>500</v>
       </c>
       <c r="F140">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>0.97000000000002728</v>
       </c>
       <c r="G140">
-        <f>ABS(D140-B140)</f>
+        <f t="shared" si="6"/>
         <v>0.97000000000002728</v>
       </c>
       <c r="I140" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>0.94090000000005292</v>
       </c>
     </row>
@@ -9372,15 +9372,15 @@
         <v>500</v>
       </c>
       <c r="F141">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>0.99000000000000909</v>
       </c>
       <c r="G141">
-        <f>ABS(D141-B141)</f>
+        <f t="shared" si="6"/>
         <v>0.99000000000000909</v>
       </c>
       <c r="I141" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>0.98010000000001796</v>
       </c>
     </row>
@@ -9398,15 +9398,15 @@
         <v>500</v>
       </c>
       <c r="F142">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>1.1700000000000159</v>
       </c>
       <c r="G142">
-        <f>ABS(D142-B142)</f>
+        <f t="shared" si="6"/>
         <v>1.1700000000000159</v>
       </c>
       <c r="I142" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>1.3689000000000373</v>
       </c>
     </row>
@@ -9428,11 +9428,11 @@
         <v>2.0299999999999727</v>
       </c>
       <c r="G143">
-        <f>ABS(D143-B143)</f>
+        <f t="shared" si="6"/>
         <v>2.0299999999999727</v>
       </c>
       <c r="I143" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>4.1208999999998897</v>
       </c>
     </row>
@@ -9454,11 +9454,11 @@
         <v>-3.21</v>
       </c>
       <c r="G144">
-        <f>ABS(E144-A144)</f>
+        <f t="shared" ref="G144:G188" si="9">ABS(E144-A144)</f>
         <v>3.21</v>
       </c>
       <c r="I144" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>10.3041</v>
       </c>
     </row>
@@ -9476,15 +9476,15 @@
         <v>0</v>
       </c>
       <c r="F145">
-        <f t="shared" ref="F145:F200" si="6">(E145-A145)</f>
+        <f t="shared" ref="F145:F188" si="10">(E145-A145)</f>
         <v>7.7</v>
       </c>
       <c r="G145">
-        <f>ABS(E145-A145)</f>
+        <f t="shared" si="9"/>
         <v>7.7</v>
       </c>
       <c r="I145" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>59.290000000000006</v>
       </c>
     </row>
@@ -9502,15 +9502,15 @@
         <v>0</v>
       </c>
       <c r="F146">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>17.34</v>
       </c>
       <c r="G146">
-        <f>ABS(E146-A146)</f>
+        <f t="shared" si="9"/>
         <v>17.34</v>
       </c>
       <c r="I146" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>300.67559999999997</v>
       </c>
     </row>
@@ -9532,11 +9532,11 @@
         <v>25.13</v>
       </c>
       <c r="G147">
-        <f>ABS(E147-A147)</f>
+        <f t="shared" si="9"/>
         <v>25.13</v>
       </c>
       <c r="I147" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>631.51689999999996</v>
       </c>
     </row>
@@ -9554,15 +9554,15 @@
         <v>0</v>
       </c>
       <c r="F148">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>30.74</v>
       </c>
       <c r="G148">
-        <f>ABS(E148-A148)</f>
+        <f t="shared" si="9"/>
         <v>30.74</v>
       </c>
       <c r="I148" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>944.94759999999985</v>
       </c>
     </row>
@@ -9580,15 +9580,15 @@
         <v>0</v>
       </c>
       <c r="F149">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>33.76</v>
       </c>
       <c r="G149">
-        <f>ABS(E149-A149)</f>
+        <f t="shared" si="9"/>
         <v>33.76</v>
       </c>
       <c r="I149" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>1139.7375999999999</v>
       </c>
     </row>
@@ -9606,15 +9606,15 @@
         <v>0</v>
       </c>
       <c r="F150">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>34.46</v>
       </c>
       <c r="G150">
-        <f>ABS(E150-A150)</f>
+        <f t="shared" si="9"/>
         <v>34.46</v>
       </c>
       <c r="I150" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>1187.4916000000001</v>
       </c>
     </row>
@@ -9632,15 +9632,15 @@
         <v>0</v>
       </c>
       <c r="F151">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>33.369999999999997</v>
       </c>
       <c r="G151">
-        <f>ABS(E151-A151)</f>
+        <f t="shared" si="9"/>
         <v>33.369999999999997</v>
       </c>
       <c r="I151" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>1113.5568999999998</v>
       </c>
     </row>
@@ -9658,15 +9658,15 @@
         <v>0</v>
       </c>
       <c r="F152">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>31.04</v>
       </c>
       <c r="G152">
-        <f>ABS(E152-A152)</f>
+        <f t="shared" si="9"/>
         <v>31.04</v>
       </c>
       <c r="I152" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>963.48159999999996</v>
       </c>
     </row>
@@ -9684,15 +9684,15 @@
         <v>0</v>
       </c>
       <c r="F153">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>27.82</v>
       </c>
       <c r="G153">
-        <f>ABS(E153-A153)</f>
+        <f t="shared" si="9"/>
         <v>27.82</v>
       </c>
       <c r="I153" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>773.95240000000001</v>
       </c>
     </row>
@@ -9710,15 +9710,15 @@
         <v>0</v>
       </c>
       <c r="F154">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>23.95</v>
       </c>
       <c r="G154">
-        <f>ABS(E154-A154)</f>
+        <f t="shared" si="9"/>
         <v>23.95</v>
       </c>
       <c r="I154" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>573.60249999999996</v>
       </c>
     </row>
@@ -9736,15 +9736,15 @@
         <v>0</v>
       </c>
       <c r="F155">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>19.829999999999998</v>
       </c>
       <c r="G155">
-        <f>ABS(E155-A155)</f>
+        <f t="shared" si="9"/>
         <v>19.829999999999998</v>
       </c>
       <c r="I155" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>393.22889999999995</v>
       </c>
     </row>
@@ -9762,15 +9762,15 @@
         <v>0</v>
       </c>
       <c r="F156">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>15.75</v>
       </c>
       <c r="G156">
-        <f>ABS(E156-A156)</f>
+        <f t="shared" si="9"/>
         <v>15.75</v>
       </c>
       <c r="I156" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>248.0625</v>
       </c>
     </row>
@@ -9788,15 +9788,15 @@
         <v>0</v>
       </c>
       <c r="F157">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>11.91</v>
       </c>
       <c r="G157">
-        <f>ABS(E157-A157)</f>
+        <f t="shared" si="9"/>
         <v>11.91</v>
       </c>
       <c r="I157" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>141.84810000000002</v>
       </c>
     </row>
@@ -9814,15 +9814,15 @@
         <v>0</v>
       </c>
       <c r="F158">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>8.3000000000000007</v>
       </c>
       <c r="G158">
-        <f>ABS(E158-A158)</f>
+        <f t="shared" si="9"/>
         <v>8.3000000000000007</v>
       </c>
       <c r="I158" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>68.890000000000015</v>
       </c>
     </row>
@@ -9840,15 +9840,15 @@
         <v>0</v>
       </c>
       <c r="F159">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>5.13</v>
       </c>
       <c r="G159">
-        <f>ABS(E159-A159)</f>
+        <f t="shared" si="9"/>
         <v>5.13</v>
       </c>
       <c r="I159" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>26.3169</v>
       </c>
     </row>
@@ -9866,15 +9866,15 @@
         <v>0</v>
       </c>
       <c r="F160">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>2.34</v>
       </c>
       <c r="G160">
-        <f>ABS(E160-A160)</f>
+        <f t="shared" si="9"/>
         <v>2.34</v>
       </c>
       <c r="I160" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>5.4755999999999991</v>
       </c>
     </row>
@@ -9892,15 +9892,15 @@
         <v>0</v>
       </c>
       <c r="F161">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>0.01</v>
       </c>
       <c r="G161">
-        <f>ABS(E161-A161)</f>
+        <f t="shared" si="9"/>
         <v>0.01</v>
       </c>
       <c r="I161" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>1E-4</v>
       </c>
     </row>
@@ -9918,15 +9918,15 @@
         <v>0</v>
       </c>
       <c r="F162">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>-1.91</v>
       </c>
       <c r="G162">
-        <f>ABS(E162-A162)</f>
+        <f t="shared" si="9"/>
         <v>1.91</v>
       </c>
       <c r="I162" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>3.6480999999999999</v>
       </c>
     </row>
@@ -9944,15 +9944,15 @@
         <v>0</v>
       </c>
       <c r="F163">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>-3.44</v>
       </c>
       <c r="G163">
-        <f>ABS(E163-A163)</f>
+        <f t="shared" si="9"/>
         <v>3.44</v>
       </c>
       <c r="I163" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>11.833599999999999</v>
       </c>
     </row>
@@ -9970,15 +9970,15 @@
         <v>0</v>
       </c>
       <c r="F164">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>-4.54</v>
       </c>
       <c r="G164">
-        <f>ABS(E164-A164)</f>
+        <f t="shared" si="9"/>
         <v>4.54</v>
       </c>
       <c r="I164" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>20.611599999999999</v>
       </c>
     </row>
@@ -9996,15 +9996,15 @@
         <v>0</v>
       </c>
       <c r="F165">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>-5.31</v>
       </c>
       <c r="G165">
-        <f>ABS(E165-A165)</f>
+        <f t="shared" si="9"/>
         <v>5.31</v>
       </c>
       <c r="I165" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>28.196099999999994</v>
       </c>
     </row>
@@ -10022,15 +10022,15 @@
         <v>0</v>
       </c>
       <c r="F166">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>-5.78</v>
       </c>
       <c r="G166">
-        <f>ABS(E166-A166)</f>
+        <f t="shared" si="9"/>
         <v>5.78</v>
       </c>
       <c r="I166" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>33.4084</v>
       </c>
     </row>
@@ -10048,15 +10048,15 @@
         <v>0</v>
       </c>
       <c r="F167">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>-6</v>
       </c>
       <c r="G167">
-        <f>ABS(E167-A167)</f>
+        <f t="shared" si="9"/>
         <v>6</v>
       </c>
       <c r="I167" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>36</v>
       </c>
     </row>
@@ -10074,15 +10074,15 @@
         <v>0</v>
       </c>
       <c r="F168">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>-6.04</v>
       </c>
       <c r="G168">
-        <f>ABS(E168-A168)</f>
+        <f t="shared" si="9"/>
         <v>6.04</v>
       </c>
       <c r="I168" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>36.4816</v>
       </c>
     </row>
@@ -10100,15 +10100,15 @@
         <v>0</v>
       </c>
       <c r="F169">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>-5.92</v>
       </c>
       <c r="G169">
-        <f>ABS(E169-A169)</f>
+        <f t="shared" si="9"/>
         <v>5.92</v>
       </c>
       <c r="I169" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>35.046399999999998</v>
       </c>
     </row>
@@ -10126,15 +10126,15 @@
         <v>0</v>
       </c>
       <c r="F170">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>-5.69</v>
       </c>
       <c r="G170">
-        <f>ABS(E170-A170)</f>
+        <f t="shared" si="9"/>
         <v>5.69</v>
       </c>
       <c r="I170" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>32.376100000000001</v>
       </c>
     </row>
@@ -10152,15 +10152,15 @@
         <v>0</v>
       </c>
       <c r="F171">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>-5.36</v>
       </c>
       <c r="G171">
-        <f>ABS(E171-A171)</f>
+        <f t="shared" si="9"/>
         <v>5.36</v>
       </c>
       <c r="I171" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>28.729600000000005</v>
       </c>
     </row>
@@ -10178,15 +10178,15 @@
         <v>0</v>
       </c>
       <c r="F172">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>-4.99</v>
       </c>
       <c r="G172">
-        <f>ABS(E172-A172)</f>
+        <f t="shared" si="9"/>
         <v>4.99</v>
       </c>
       <c r="I172" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>24.900100000000002</v>
       </c>
     </row>
@@ -10204,15 +10204,15 @@
         <v>0</v>
       </c>
       <c r="F173">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>-4.6100000000000003</v>
       </c>
       <c r="G173">
-        <f>ABS(E173-A173)</f>
+        <f t="shared" si="9"/>
         <v>4.6100000000000003</v>
       </c>
       <c r="I173" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>21.252100000000002</v>
       </c>
     </row>
@@ -10230,15 +10230,15 @@
         <v>0</v>
       </c>
       <c r="F174">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>-4.22</v>
       </c>
       <c r="G174">
-        <f>ABS(E174-A174)</f>
+        <f t="shared" si="9"/>
         <v>4.22</v>
       </c>
       <c r="I174" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>17.808399999999999</v>
       </c>
     </row>
@@ -10256,15 +10256,15 @@
         <v>0</v>
       </c>
       <c r="F175">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>-3.85</v>
       </c>
       <c r="G175">
-        <f>ABS(E175-A175)</f>
+        <f t="shared" si="9"/>
         <v>3.85</v>
       </c>
       <c r="I175" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>14.822500000000002</v>
       </c>
     </row>
@@ -10282,15 +10282,15 @@
         <v>0</v>
       </c>
       <c r="F176">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>-3.5</v>
       </c>
       <c r="G176">
-        <f>ABS(E176-A176)</f>
+        <f t="shared" si="9"/>
         <v>3.5</v>
       </c>
       <c r="I176" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>12.25</v>
       </c>
     </row>
@@ -10308,15 +10308,15 @@
         <v>0</v>
       </c>
       <c r="F177">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>-3.18</v>
       </c>
       <c r="G177">
-        <f>ABS(E177-A177)</f>
+        <f t="shared" si="9"/>
         <v>3.18</v>
       </c>
       <c r="I177" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>10.112400000000001</v>
       </c>
     </row>
@@ -10334,15 +10334,15 @@
         <v>0</v>
       </c>
       <c r="F178">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>-2.9</v>
       </c>
       <c r="G178">
-        <f>ABS(E178-A178)</f>
+        <f t="shared" si="9"/>
         <v>2.9</v>
       </c>
       <c r="I178" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>8.41</v>
       </c>
     </row>
@@ -10360,15 +10360,15 @@
         <v>0</v>
       </c>
       <c r="F179">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>-2.66</v>
       </c>
       <c r="G179">
-        <f>ABS(E179-A179)</f>
+        <f t="shared" si="9"/>
         <v>2.66</v>
       </c>
       <c r="I179" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>7.0756000000000006</v>
       </c>
     </row>
@@ -10386,15 +10386,15 @@
         <v>0</v>
       </c>
       <c r="F180">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>-2.4700000000000002</v>
       </c>
       <c r="G180">
-        <f>ABS(E180-A180)</f>
+        <f t="shared" si="9"/>
         <v>2.4700000000000002</v>
       </c>
       <c r="I180" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>6.1009000000000011</v>
       </c>
     </row>
@@ -10412,15 +10412,15 @@
         <v>0</v>
       </c>
       <c r="F181">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>-2.31</v>
       </c>
       <c r="G181">
-        <f>ABS(E181-A181)</f>
+        <f t="shared" si="9"/>
         <v>2.31</v>
       </c>
       <c r="I181" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>5.3361000000000001</v>
       </c>
     </row>
@@ -10438,15 +10438,15 @@
         <v>0</v>
       </c>
       <c r="F182">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>-2.1800000000000002</v>
       </c>
       <c r="G182">
-        <f>ABS(E182-A182)</f>
+        <f t="shared" si="9"/>
         <v>2.1800000000000002</v>
       </c>
       <c r="I182" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>4.7524000000000006</v>
       </c>
     </row>
@@ -10464,15 +10464,15 @@
         <v>0</v>
       </c>
       <c r="F183">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>-2.0699999999999998</v>
       </c>
       <c r="G183">
-        <f>ABS(E183-A183)</f>
+        <f t="shared" si="9"/>
         <v>2.0699999999999998</v>
       </c>
       <c r="I183" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>4.2848999999999995</v>
       </c>
     </row>
@@ -10490,15 +10490,15 @@
         <v>0</v>
       </c>
       <c r="F184">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>-1.99</v>
       </c>
       <c r="G184">
-        <f>ABS(E184-A184)</f>
+        <f t="shared" si="9"/>
         <v>1.99</v>
       </c>
       <c r="I184" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>3.9601000000000002</v>
       </c>
     </row>
@@ -10516,15 +10516,15 @@
         <v>0</v>
       </c>
       <c r="F185">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>-1.94</v>
       </c>
       <c r="G185">
-        <f>ABS(E185-A185)</f>
+        <f t="shared" si="9"/>
         <v>1.94</v>
       </c>
       <c r="I185" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>3.7635999999999998</v>
       </c>
     </row>
@@ -10542,15 +10542,15 @@
         <v>0</v>
       </c>
       <c r="F186">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>-1.9</v>
       </c>
       <c r="G186">
-        <f>ABS(E186-A186)</f>
+        <f t="shared" si="9"/>
         <v>1.9</v>
       </c>
       <c r="I186" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>3.61</v>
       </c>
     </row>
@@ -10568,15 +10568,15 @@
         <v>0</v>
       </c>
       <c r="F187">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>-1.87</v>
       </c>
       <c r="G187">
-        <f>ABS(E187-A187)</f>
+        <f t="shared" si="9"/>
         <v>1.87</v>
       </c>
       <c r="I187" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>3.4969000000000006</v>
       </c>
     </row>
@@ -10594,15 +10594,15 @@
         <v>0</v>
       </c>
       <c r="F188">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>-1.86</v>
       </c>
       <c r="G188">
-        <f>ABS(E188-A188)</f>
+        <f t="shared" si="9"/>
         <v>1.86</v>
       </c>
       <c r="I188" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>3.4596000000000005</v>
       </c>
     </row>
